--- a/exampleProblems/ch9_041/ch9_41.xlsx
+++ b/exampleProblems/ch9_041/ch9_41.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleLiquidNMRanalysisVoila/development/exampleProblems/ch9_041/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/ch9_041/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="80" documentId="11_9DFAB9B766D6D4A00340053428BA5669BEDDD768" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C98C07F7-796E-324E-93D3-C481836B4C47}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="11_9DFAB9B766D6D4A00340053428BA5669BEDDD768" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E359F2F-DD2A-4166-BC2A-FCCE6D2D72ED}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="10380" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="44">
   <si>
     <t>Name</t>
   </si>
@@ -138,9 +138,6 @@
     <t>tt</t>
   </si>
   <si>
-    <t>7,9</t>
-  </si>
-  <si>
     <t>A (q)</t>
   </si>
   <si>
@@ -151,13 +148,28 @@
   </si>
   <si>
     <t>F (t)</t>
+  </si>
+  <si>
+    <t>8, 8, 8</t>
+  </si>
+  <si>
+    <t>8, 8</t>
+  </si>
+  <si>
+    <t>6, 6</t>
+  </si>
+  <si>
+    <t>7,7,9,9</t>
+  </si>
+  <si>
+    <t>9,9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -586,17 +598,17 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -613,24 +625,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.83203125" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="1" max="1" width="1.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" customWidth="1"/>
-    <col min="6" max="6" width="6.5" customWidth="1"/>
-    <col min="7" max="7" width="7.5" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="6.1640625" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -657,12 +669,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1">
         <v>4.13</v>
@@ -679,14 +691,14 @@
       <c r="G2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="1">
-        <v>8</v>
+      <c r="H2" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -708,19 +720,19 @@
       <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="1">
-        <v>8</v>
+      <c r="H3" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1">
         <v>2.5</v>
@@ -737,19 +749,19 @@
       <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="1">
-        <v>6</v>
+      <c r="H4" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1">
         <v>2.12</v>
@@ -767,18 +779,18 @@
         <v>34</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1">
         <v>1.25</v>
@@ -795,14 +807,14 @@
       <c r="G6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="1">
-        <v>9</v>
+      <c r="H6" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -813,7 +825,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -824,7 +836,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -835,7 +847,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -846,7 +858,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -871,9 +883,9 @@
       <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="24">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>20</v>
@@ -906,7 +918,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -938,7 +950,7 @@
       <c r="K2" s="6"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -970,7 +982,7 @@
       <c r="K3" s="6"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1002,7 +1014,7 @@
       <c r="K4" s="6"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1034,7 +1046,7 @@
       <c r="K5" s="6"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1065,7 +1077,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1079,7 +1091,7 @@
       <c r="K7" s="6"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1093,7 +1105,7 @@
       <c r="K8" s="6"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1107,7 +1119,7 @@
       <c r="K9" s="6"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1121,7 +1133,7 @@
       <c r="K10" s="6"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1135,10 +1147,10 @@
       <c r="K11" s="9"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M15" s="8"/>
     </row>
   </sheetData>
@@ -1155,9 +1167,9 @@
       <selection activeCell="A13" sqref="A13:I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="24">
+    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>20</v>
@@ -1201,7 +1213,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1234,7 +1246,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="6"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1267,7 +1279,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="6"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1300,7 +1312,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="6"/>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1333,7 +1345,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="6"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1366,7 +1378,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="6"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1399,7 +1411,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="6"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1432,7 +1444,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="6"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1465,7 +1477,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="6"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1498,7 +1510,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="6"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1531,7 +1543,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="6"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1564,7 +1576,7 @@
       <c r="U12" s="1"/>
       <c r="V12" s="6"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1579,7 +1591,7 @@
       <c r="U13" s="1"/>
       <c r="V13" s="6"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1594,7 +1606,7 @@
       <c r="U14" s="1"/>
       <c r="V14" s="6"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1609,7 +1621,7 @@
       <c r="U15" s="1"/>
       <c r="V15" s="6"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1624,7 +1636,7 @@
       <c r="U16" s="1"/>
       <c r="V16" s="6"/>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1639,7 +1651,7 @@
       <c r="U17" s="8"/>
       <c r="V17" s="9"/>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1663,7 +1675,7 @@
       <c r="U18" s="8"/>
       <c r="V18" s="9"/>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1674,7 +1686,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1685,7 +1697,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1696,7 +1708,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1707,7 +1719,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1718,7 +1730,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1729,7 +1741,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1740,7 +1752,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1751,7 +1763,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1762,7 +1774,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1773,7 +1785,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1784,7 +1796,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1795,7 +1807,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1806,7 +1818,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1817,7 +1829,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -1828,7 +1840,7 @@
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1839,7 +1851,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -1860,13 +1872,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J4" sqref="J4:J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="24">
+    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>20</v>
@@ -1910,7 +1922,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1941,7 +1953,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1972,7 +1984,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2003,7 +2015,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2034,7 +2046,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2065,7 +2077,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2096,7 +2108,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2127,7 +2139,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2158,7 +2170,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2189,7 +2201,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2220,7 +2232,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2251,7 +2263,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2264,7 +2276,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2277,7 +2289,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2290,7 +2302,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2303,7 +2315,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2316,7 +2328,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2329,7 +2341,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2342,7 +2354,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2355,7 +2367,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2368,7 +2380,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2381,7 +2393,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -2394,7 +2406,7 @@
       <c r="J23" s="8"/>
       <c r="K23" s="9"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2407,7 +2419,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2420,7 +2432,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="6"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2433,7 +2445,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="6"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2446,7 +2458,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2459,7 +2471,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="6"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2472,7 +2484,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2485,7 +2497,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="6"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2498,7 +2510,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="6"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2511,7 +2523,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="6"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2524,7 +2536,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="6"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2537,7 +2549,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="6"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2550,7 +2562,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="6"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2563,7 +2575,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="6"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2576,7 +2588,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="6"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2589,7 +2601,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="6"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2602,7 +2614,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="6"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2615,7 +2627,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="6"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2628,7 +2640,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="6"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2641,7 +2653,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="6"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2654,7 +2666,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="6"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2667,7 +2679,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="6"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -2694,9 +2706,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="24">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>10</v>
@@ -2723,7 +2735,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2748,7 +2760,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2773,7 +2785,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2798,7 +2810,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2823,7 +2835,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2848,7 +2860,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2873,7 +2885,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2884,7 +2896,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2895,7 +2907,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2906,7 +2918,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2917,7 +2929,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -2928,7 +2940,7 @@
       <c r="H12" s="8"/>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2939,7 +2951,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2950,7 +2962,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -2975,9 +2987,9 @@
       <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="24">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>10</v>
@@ -3004,7 +3016,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -3029,7 +3041,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -3054,7 +3066,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -3079,7 +3091,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -3104,7 +3116,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -3129,7 +3141,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -3140,7 +3152,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -3151,7 +3163,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -3162,7 +3174,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -3173,7 +3185,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -3190,12 +3202,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3416,15 +3425,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3449,18 +3470,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/exampleProblems/ch9_041/ch9_41.xlsx
+++ b/exampleProblems/ch9_041/ch9_41.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/ch9_041/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="11_9DFAB9B766D6D4A00340053428BA5669BEDDD768" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E359F2F-DD2A-4166-BC2A-FCCE6D2D72ED}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="11_9DFAB9B766D6D4A00340053428BA5669BEDDD768" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB53BCE2-CB09-49CF-B1AB-4DA7D3F90CBC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7275" yWindow="990" windowWidth="20295" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -117,9 +117,6 @@
     <t>B (t)</t>
   </si>
   <si>
-    <t>C6H13NO2</t>
-  </si>
-  <si>
     <t>4.17 .. 4.09</t>
   </si>
   <si>
@@ -163,6 +160,15 @@
   </si>
   <si>
     <t>9,9</t>
+  </si>
+  <si>
+    <t>C9H12N2O</t>
+  </si>
+  <si>
+    <t>smiles</t>
+  </si>
+  <si>
+    <t>CCOC(=O)CCCN</t>
   </si>
 </sst>
 </file>
@@ -592,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,17 +609,23 @@
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -625,7 +637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -674,13 +686,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1">
         <v>4.13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" s="1">
         <v>2</v>
@@ -692,7 +704,7 @@
         <v>26</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>8</v>
@@ -709,7 +721,7 @@
         <v>3.14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -721,7 +733,7 @@
         <v>9</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>8</v>
@@ -732,13 +744,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1">
         <v>2.5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
@@ -750,7 +762,7 @@
         <v>9</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>8</v>
@@ -761,13 +773,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1">
         <v>2.12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
@@ -776,10 +788,10 @@
         <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>8</v>
@@ -790,13 +802,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1">
         <v>1.25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
@@ -808,7 +820,7 @@
         <v>9</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>8</v>

--- a/exampleProblems/ch9_041/ch9_41.xlsx
+++ b/exampleProblems/ch9_041/ch9_41.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/ch9_041/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="11_9DFAB9B766D6D4A00340053428BA5669BEDDD768" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB53BCE2-CB09-49CF-B1AB-4DA7D3F90CBC}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_0655FA062A772EFA8C3AEF1F4522FC1E04F9A6AC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D2A0002-0DB6-7240-86D7-03882B027938}"/>
   <bookViews>
-    <workbookView xWindow="7275" yWindow="990" windowWidth="20295" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7280" yWindow="1000" windowWidth="20300" windowHeight="13620" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -20,18 +20,42 @@
     <sheet name="HMBC" sheetId="8" r:id="rId5"/>
     <sheet name="C13_1D" sheetId="2" r:id="rId6"/>
     <sheet name="H1_pureshift" sheetId="3" r:id="rId7"/>
+    <sheet name="NOESY" sheetId="10" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="46">
+  <si>
+    <t>molecule</t>
+  </si>
+  <si>
+    <t>smiles</t>
+  </si>
+  <si>
+    <t>C6H13NO</t>
+  </si>
+  <si>
+    <t>CCOC(=O)CCCN</t>
+  </si>
   <si>
     <t>Name</t>
   </si>
@@ -57,125 +81,113 @@
     <t>Method</t>
   </si>
   <si>
+    <t>A (q)</t>
+  </si>
+  <si>
+    <t>4.17 .. 4.09</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>8, 8, 8</t>
+  </si>
+  <si>
     <t>Peaks</t>
   </si>
   <si>
+    <t>B (t)</t>
+  </si>
+  <si>
+    <t>3.18 .. 3.10</t>
+  </si>
+  <si>
     <t>t</t>
   </si>
   <si>
+    <t>8, 8</t>
+  </si>
+  <si>
+    <t>C (t)</t>
+  </si>
+  <si>
+    <t>2.54 .. 2.46</t>
+  </si>
+  <si>
+    <t>6, 6</t>
+  </si>
+  <si>
+    <t>D (tt)</t>
+  </si>
+  <si>
+    <t>2.16 .. 2.08</t>
+  </si>
+  <si>
+    <t>tt</t>
+  </si>
+  <si>
+    <t>7,7,9,9</t>
+  </si>
+  <si>
+    <t>F (t)</t>
+  </si>
+  <si>
+    <t>1.29 .. 1.21</t>
+  </si>
+  <si>
+    <t>9,9</t>
+  </si>
+  <si>
+    <t>f2 (ppm)</t>
+  </si>
+  <si>
+    <t>f1 (ppm)</t>
+  </si>
+  <si>
+    <t>Intensity</t>
+  </si>
+  <si>
+    <t>Width f2</t>
+  </si>
+  <si>
+    <t>Width f1</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Flags</t>
+  </si>
+  <si>
+    <t>Impurity/Compound</t>
+  </si>
+  <si>
+    <t>Annotation</t>
+  </si>
+  <si>
+    <t>Compound</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
     <t>ppm</t>
   </si>
   <si>
-    <t>Intensity</t>
-  </si>
-  <si>
     <t>Width</t>
   </si>
   <si>
     <t>Area</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Flags</t>
-  </si>
-  <si>
-    <t>Impurity/Compound</t>
-  </si>
-  <si>
-    <t>Annotation</t>
-  </si>
-  <si>
-    <t>Compound</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>f2 (ppm)</t>
-  </si>
-  <si>
-    <t>f1 (ppm)</t>
-  </si>
-  <si>
-    <t>Width f2</t>
-  </si>
-  <si>
-    <t>Width f1</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>molecule</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>B (t)</t>
-  </si>
-  <si>
-    <t>4.17 .. 4.09</t>
-  </si>
-  <si>
-    <t>3.18 .. 3.10</t>
-  </si>
-  <si>
-    <t>2.54 .. 2.46</t>
-  </si>
-  <si>
-    <t>2.16 .. 2.08</t>
-  </si>
-  <si>
-    <t>1.29 .. 1.21</t>
-  </si>
-  <si>
-    <t>tt</t>
-  </si>
-  <si>
-    <t>A (q)</t>
-  </si>
-  <si>
-    <t>C (t)</t>
-  </si>
-  <si>
-    <t>D (tt)</t>
-  </si>
-  <si>
-    <t>F (t)</t>
-  </si>
-  <si>
-    <t>8, 8, 8</t>
-  </si>
-  <si>
-    <t>8, 8</t>
-  </si>
-  <si>
-    <t>6, 6</t>
-  </si>
-  <si>
-    <t>7,7,9,9</t>
-  </si>
-  <si>
-    <t>9,9</t>
-  </si>
-  <si>
-    <t>C9H12N2O</t>
-  </si>
-  <si>
-    <t>smiles</t>
-  </si>
-  <si>
-    <t>CCOC(=O)CCCN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,6 +345,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -600,32 +616,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="B1" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -641,58 +658,58 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="1.83203125" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" customWidth="1"/>
+    <col min="6" max="6" width="6.5" customWidth="1"/>
+    <col min="7" max="7" width="7.5" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" customWidth="1"/>
+    <col min="9" max="9" width="6.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1">
         <v>4.13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1">
         <v>2</v>
@@ -701,27 +718,27 @@
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1">
         <v>3.14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -730,27 +747,27 @@
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1">
         <v>2.5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
@@ -759,27 +776,27 @@
         <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1">
         <v>2.12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
@@ -788,27 +805,27 @@
         <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1">
         <v>1.25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
@@ -817,16 +834,16 @@
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -837,7 +854,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -848,7 +865,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -859,7 +876,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -870,7 +887,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -892,45 +909,45 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="24">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -941,7 +958,7 @@
         <v>60.9</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="E2" s="1">
         <v>10.63</v>
@@ -953,16 +970,16 @@
         <v>3.57</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="6"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -973,7 +990,7 @@
         <v>39.4</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="E3" s="1">
         <v>18.68</v>
@@ -985,16 +1002,16 @@
         <v>6.34</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="6"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1005,7 +1022,7 @@
         <v>31.2</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="E4" s="1">
         <v>8.69</v>
@@ -1017,16 +1034,16 @@
         <v>3.16</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="6"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1037,7 +1054,7 @@
         <v>22.6</v>
       </c>
       <c r="D5" s="1">
-        <v>0.3</v>
+        <v>-0.3</v>
       </c>
       <c r="E5" s="1">
         <v>17.059999999999999</v>
@@ -1049,16 +1066,16 @@
         <v>7.62</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="6"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1069,7 +1086,7 @@
         <v>14.2</v>
       </c>
       <c r="D6" s="1">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="E6" s="1">
         <v>11.66</v>
@@ -1081,15 +1098,15 @@
         <v>-3.37</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1103,7 +1120,7 @@
       <c r="K7" s="6"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1117,7 +1134,7 @@
       <c r="K8" s="6"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1131,7 +1148,7 @@
       <c r="K9" s="6"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1145,7 +1162,7 @@
       <c r="K10" s="6"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1159,10 +1176,10 @@
       <c r="K11" s="9"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="M15" s="8"/>
     </row>
   </sheetData>
@@ -1176,42 +1193,42 @@
   <dimension ref="A1:V35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:I14"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="24">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
@@ -1225,7 +1242,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1248,17 +1265,17 @@
         <v>24.96</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="6"/>
       <c r="U2" s="1"/>
       <c r="V2" s="6"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1281,17 +1298,17 @@
         <v>49.97</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="6"/>
       <c r="U3" s="1"/>
       <c r="V3" s="6"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1314,17 +1331,17 @@
         <v>28.84</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="6"/>
       <c r="U4" s="1"/>
       <c r="V4" s="6"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1347,17 +1364,17 @@
         <v>4.3099999999999996</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="6"/>
       <c r="U5" s="1"/>
       <c r="V5" s="6"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1380,17 +1397,17 @@
         <v>27.49</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="6"/>
       <c r="U6" s="1"/>
       <c r="V6" s="6"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1413,17 +1430,17 @@
         <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="6"/>
       <c r="U7" s="1"/>
       <c r="V7" s="6"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1446,17 +1463,17 @@
         <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="6"/>
       <c r="U8" s="1"/>
       <c r="V8" s="6"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1479,17 +1496,17 @@
         <v>1</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="6"/>
       <c r="U9" s="1"/>
       <c r="V9" s="6"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1512,17 +1529,17 @@
         <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="6"/>
       <c r="U10" s="1"/>
       <c r="V10" s="6"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1545,17 +1562,17 @@
         <v>1</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="6"/>
       <c r="U11" s="1"/>
       <c r="V11" s="6"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1578,17 +1595,17 @@
         <v>1</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="6"/>
       <c r="U12" s="1"/>
       <c r="V12" s="6"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1603,7 +1620,7 @@
       <c r="U13" s="1"/>
       <c r="V13" s="6"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1618,7 +1635,7 @@
       <c r="U14" s="1"/>
       <c r="V14" s="6"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="A15" s="5"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1633,7 +1650,7 @@
       <c r="U15" s="1"/>
       <c r="V15" s="6"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="A16" s="5"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1648,7 +1665,7 @@
       <c r="U16" s="1"/>
       <c r="V16" s="6"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1663,7 +1680,7 @@
       <c r="U17" s="8"/>
       <c r="V17" s="9"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22">
       <c r="A18" s="5"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1687,7 +1704,7 @@
       <c r="U18" s="8"/>
       <c r="V18" s="9"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22">
       <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1698,7 +1715,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1709,7 +1726,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1720,7 +1737,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22">
       <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1731,7 +1748,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22">
       <c r="A23" s="5"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1742,7 +1759,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22">
       <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1753,7 +1770,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22">
       <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1764,7 +1781,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22">
       <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1775,7 +1792,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1786,7 +1803,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22">
       <c r="A28" s="5"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1797,7 +1814,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22">
       <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1808,7 +1825,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22">
       <c r="A30" s="5"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1819,7 +1836,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22">
       <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1830,7 +1847,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22">
       <c r="A32" s="5"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1841,7 +1858,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="7"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -1852,7 +1869,7 @@
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="5"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1863,7 +1880,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -1888,39 +1905,39 @@
       <selection activeCell="J4" sqref="J4:J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="24">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
@@ -1934,7 +1951,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1957,15 +1974,15 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1988,15 +2005,15 @@
         <v>0.21</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2019,15 +2036,15 @@
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2050,15 +2067,15 @@
         <v>0.01</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2081,15 +2098,15 @@
         <v>1.01</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2112,15 +2129,15 @@
         <v>0.06</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2143,15 +2160,15 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2174,15 +2191,15 @@
         <v>0.5</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2205,15 +2222,15 @@
         <v>2.11</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2236,15 +2253,15 @@
         <v>0.25</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2267,15 +2284,15 @@
         <v>0.42</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2288,7 +2305,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2301,7 +2318,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="A15" s="5"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2314,7 +2331,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="A16" s="5"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2327,7 +2344,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="5"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2340,7 +2357,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="5"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2353,7 +2370,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2366,7 +2383,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2379,7 +2396,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2392,7 +2409,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2405,7 +2422,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -2418,7 +2435,7 @@
       <c r="J23" s="8"/>
       <c r="K23" s="9"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2431,7 +2448,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2444,7 +2461,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="6"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2457,7 +2474,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="6"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2470,7 +2487,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="5"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2483,7 +2500,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="6"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2496,7 +2513,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="5"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2509,7 +2526,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="6"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2522,7 +2539,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="6"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="5"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2535,7 +2552,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="6"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="5"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2548,7 +2565,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="6"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="5"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2561,7 +2578,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="6"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" s="5"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2574,7 +2591,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="6"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" s="5"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2587,7 +2604,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="6"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" s="5"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2600,7 +2617,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="6"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" s="5"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2613,7 +2630,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="6"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39" s="5"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2626,7 +2643,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="6"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="A40" s="5"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2639,7 +2656,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="6"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="A41" s="5"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2652,7 +2669,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="6"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11">
       <c r="A42" s="5"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2665,7 +2682,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="6"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="A43" s="5"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2678,7 +2695,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="6"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="A44" s="5"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2691,7 +2708,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="6"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="A45" s="7"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -2718,36 +2735,36 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="24">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2764,15 +2781,15 @@
         <v>2520.89</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2789,15 +2806,15 @@
         <v>2812.18</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2814,15 +2831,15 @@
         <v>2383.0100000000002</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2839,15 +2856,15 @@
         <v>9387.2800000000007</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2864,15 +2881,15 @@
         <v>8261.02</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2889,15 +2906,15 @@
         <v>7430.15</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2908,7 +2925,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2919,7 +2936,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2930,7 +2947,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="5"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2941,7 +2958,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -2952,7 +2969,7 @@
       <c r="H12" s="8"/>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2963,7 +2980,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2974,7 +2991,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -2999,36 +3016,36 @@
       <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="24">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -3045,15 +3062,15 @@
         <v>9.57</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -3070,15 +3087,15 @@
         <v>14.49</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -3095,15 +3112,15 @@
         <v>13.64</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -3120,15 +3137,15 @@
         <v>16.45</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -3145,15 +3162,15 @@
         <v>46.81</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -3164,7 +3181,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -3175,7 +3192,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -3186,7 +3203,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -3197,7 +3214,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -3213,13 +3230,55 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{491D1F33-E5BC-9F48-8832-755365900B90}">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="24">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100155B07917A39914F9664B9093559A33D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fbeff89c08116489e82681c46e7ae15d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f6191221-55a2-427d-afce-6bfcc029a585" xmlns:ns4="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a905948312a67a3512ded1d64743b24d" ns3:_="" ns4:_="">
     <xsd:import namespace="f6191221-55a2-427d-afce-6bfcc029a585"/>
@@ -3436,6 +3495,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3446,23 +3511,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCEF473A-5319-4ED2-888F-44217AC86176}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3481,6 +3529,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
+    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
   <ds:schemaRefs>
